--- a/Schedule/Schedule.xlsx
+++ b/Schedule/Schedule.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\university\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC11CDA2-C254-4C04-BB32-C01C02D9070C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F09260-5119-42D7-AAA4-BC257B2CCEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>Понедельник</t>
   </si>
@@ -60,24 +60,32 @@
     <t>Пятница</t>
   </si>
   <si>
+    <t>Высш. мат. (лк.)
+Олена Володимирiвна Коротунова</t>
+  </si>
+  <si>
     <t>Высш. мат. (пр.)
-Олена Коротунова</t>
-  </si>
-  <si>
-    <t>Высш. мат. (лк.)
-Олена Коротунова</t>
+Олена Володимирiвна Коротунова</t>
+  </si>
+  <si>
+    <t>ЧМ (лб.)
+Терещенко Еліна Валентинівна (212те)</t>
   </si>
   <si>
     <t>АтаСД (лк.)
-Льовкiн Валерій Миколайович</t>
-  </si>
-  <si>
-    <t>ЧМ (лб.)
-Терещенко Еліна Валентинівна</t>
+Льовкiн Валерій Миколайович (212та)</t>
   </si>
   <si>
     <t>АтаСД (лб.)
-Терещенко Еліна Валентинівна</t>
+Терещенко Еліна Валентинівна (212та)</t>
+  </si>
+  <si>
+    <t>УКвЄК (пр.)
+Спудка Ірина Миколаївна</t>
+  </si>
+  <si>
+    <t>УКвЄК (лк.)
+Спудка Ірина Миколаївна</t>
   </si>
 </sst>
 </file>
@@ -230,32 +238,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,7 +548,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:A12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,403 +562,403 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="7" t="s">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="7" t="s">
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="7" t="s">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7" t="s">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="7" t="s">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="7" t="s">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="7" t="s">
+      <c r="C29" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="7" t="s">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="7" t="s">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="7" t="s">
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="7" t="s">
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="7" t="s">
+    <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="7" t="s">
+      <c r="C43" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="7" t="s">
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="7" t="s">
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="7" t="s">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="7" t="s">
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="7" t="s">
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="7" t="s">
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="9"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A49:A60"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="A1:A12"/>
     <mergeCell ref="A25:A36"/>
     <mergeCell ref="B25:B26"/>
@@ -966,16 +974,20 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schedule/Schedule.xlsx
+++ b/Schedule/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\university\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F09260-5119-42D7-AAA4-BC257B2CCEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DE3BF2-4330-4697-A269-75F401D0FC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>Понедельник</t>
   </si>
@@ -58,14 +58,6 @@
   </si>
   <si>
     <t>Пятница</t>
-  </si>
-  <si>
-    <t>Высш. мат. (лк.)
-Олена Володимирiвна Коротунова</t>
-  </si>
-  <si>
-    <t>Высш. мат. (пр.)
-Олена Володимирiвна Коротунова</t>
   </si>
   <si>
     <t>ЧМ (лб.)
@@ -86,6 +78,31 @@
   <si>
     <t>УКвЄК (лк.)
 Спудка Ірина Миколаївна</t>
+  </si>
+  <si>
+    <t>Высш. мат. (лк.)
+Коротунова Олена Володимирiвна</t>
+  </si>
+  <si>
+    <t>Высш. мат. (пр.)
+Коротунова Олена Володимирiвна</t>
+  </si>
+  <si>
+    <t>МА/СРВМ (лк.)
+Сніжко Наталія Вікторівна</t>
+  </si>
+  <si>
+    <t>МА/СРВМ (пр.)
+Сніжко Наталія Вікторівна</t>
+  </si>
+  <si>
+    <t>ППСУ (лк.)</t>
+  </si>
+  <si>
+    <t>Здоров’я зберігаючі технології та співдія функціональному розвитку</t>
+  </si>
+  <si>
+    <t>ППСУ (пр.)</t>
   </si>
 </sst>
 </file>
@@ -238,6 +255,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -246,24 +281,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,404 +578,422 @@
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="1"/>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8" t="s">
+    <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8" t="s">
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8" t="s">
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8" t="s">
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="12"/>
-    </row>
-    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="12"/>
-    </row>
-    <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="8" t="s">
-        <v>6</v>
-      </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="10"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C7:C8"/>
+  <mergeCells count="44">
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
     <mergeCell ref="A1:A12"/>
     <mergeCell ref="A25:A36"/>
     <mergeCell ref="B25:B26"/>
@@ -974,20 +1009,21 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A60"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schedule/Schedule.xlsx
+++ b/Schedule/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\university\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DE3BF2-4330-4697-A269-75F401D0FC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2F86B2-9484-4547-BFC9-59F6FF1D9E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>Понедельник</t>
   </si>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>ППСУ (пр.)</t>
+  </si>
+  <si>
+    <t>Українська мова (за п.с.) (лк.)
+Бондарчук Катерина Сергіївна</t>
+  </si>
+  <si>
+    <t>Українська мова (за п.с.) (пр.)
+Бондарчук Катерина Сергіївна</t>
   </si>
 </sst>
 </file>
@@ -255,32 +263,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,92 +587,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -672,13 +680,13 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -686,13 +694,13 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -700,133 +708,137 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="7" t="s">
+    <row r="23" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="3"/>
+      <c r="C23" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="12"/>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -834,166 +846,167 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="6"/>
+      <c r="B39" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="12"/>
     </row>
     <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="6"/>
+      <c r="B43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="6"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="12"/>
     </row>
     <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="6"/>
+      <c r="B45" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="6"/>
+      <c r="B47" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="6"/>
+      <c r="B51" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="6"/>
+      <c r="B53" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="6"/>
+      <c r="B55" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="7" t="s">
+      <c r="A57" s="6"/>
+      <c r="B57" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="7" t="s">
+      <c r="A59" s="6"/>
+      <c r="B59" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="9"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A49:A60"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="A1:A12"/>
     <mergeCell ref="A25:A36"/>
     <mergeCell ref="B25:B26"/>
@@ -1009,21 +1022,20 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schedule/Schedule.xlsx
+++ b/Schedule/Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\university\Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\university\git\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2F86B2-9484-4547-BFC9-59F6FF1D9E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63128254-8505-42ED-BC15-E8F17A7C98B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -263,6 +263,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -272,24 +290,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -580,99 +581,99 @@
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -680,13 +681,13 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -694,13 +695,13 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -708,137 +709,137 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="3" t="s">
+    <row r="32" spans="1:3" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="12"/>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="12"/>
-    </row>
-    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="3"/>
-    </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -846,152 +847,181 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="8" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="8" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="12"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="10"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="8" t="s">
+      <c r="A51" s="12"/>
+      <c r="B51" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="8" t="s">
+      <c r="A53" s="12"/>
+      <c r="B53" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="9"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="8" t="s">
+      <c r="A55" s="12"/>
+      <c r="B55" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="8" t="s">
+      <c r="A57" s="12"/>
+      <c r="B57" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="8" t="s">
+      <c r="A59" s="12"/>
+      <c r="B59" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="10"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A1:A12"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="B1:B2"/>
@@ -1007,35 +1037,6 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A12"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A60"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
